--- a/assignments & timeline for SilverReminder.xlsx
+++ b/assignments & timeline for SilverReminder.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Naja\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sce\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10410"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment &amp; Timeline" sheetId="1" r:id="rId1"/>
@@ -276,7 +276,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -333,7 +333,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -360,7 +360,7 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -650,7 +650,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/assignments & timeline for SilverReminder.xlsx
+++ b/assignments & timeline for SilverReminder.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sce\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enoch\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14190"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment &amp; Timeline" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="87">
   <si>
     <t>Task Name</t>
   </si>
@@ -42,9 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>外出提醒發想及xmind草圖製作</t>
-  </si>
-  <si>
     <t>製作手機畫面xml layout檔(第一版)</t>
   </si>
   <si>
@@ -165,23 +162,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>開發相機模組</t>
-  </si>
-  <si>
-    <t>話說看相片的地方在哪??</t>
-  </si>
-  <si>
-    <t>我的提醒</t>
-  </si>
-  <si>
-    <t>新增提醒</t>
-  </si>
-  <si>
     <t>蛋黃哥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文菁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -259,15 +240,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>阿鬼, 蛋黃哥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Github</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保健提醒模組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出提醒發想及xmind草圖製作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>外出提醒模組</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阿鬼, 蛋黃哥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Github</t>
+    <t>版面設計及開發</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程串接及製作試玩版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料庫設計</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統架構</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料類別設計開發</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能設計開發及測試</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成員管理_資料實體與操作類別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>時間管理_資料實體與操作類別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒主檔_資料實體與操作類別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒清單_資料實體與操作類別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保健提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定管理_保健項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保健項目_資料實體與操作類別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定管理_成員管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>設定管理_時間管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增提醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保健模組首頁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歷史記錄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保健模組提醒服務</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文菁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -326,7 +395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -365,6 +434,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -646,17 +718,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54:XFD54"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="65.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" style="2" customWidth="1"/>
@@ -669,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
@@ -686,7 +758,7 @@
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5">
@@ -700,12 +772,12 @@
         <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="5">
@@ -719,12 +791,12 @@
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="5">
@@ -738,12 +810,12 @@
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="5">
@@ -757,12 +829,12 @@
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="5">
@@ -776,12 +848,12 @@
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="5">
@@ -795,12 +867,12 @@
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5">
@@ -814,15 +886,15 @@
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="6" customFormat="1" ht="66" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C9" s="5">
         <v>42604</v>
@@ -835,12 +907,12 @@
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="5">
@@ -854,12 +926,12 @@
         <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="5">
@@ -873,12 +945,12 @@
         <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="5">
@@ -892,12 +964,12 @@
         <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="5">
@@ -911,12 +983,12 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="5">
@@ -930,12 +1002,12 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="5">
@@ -949,12 +1021,12 @@
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="5">
@@ -968,12 +1040,12 @@
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="5">
@@ -987,12 +1059,12 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="5">
@@ -1006,12 +1078,12 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="3">
         <v>42619</v>
@@ -1024,20 +1096,20 @@
         <v>3</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="C21" s="3">
         <v>42600</v>
@@ -1050,12 +1122,12 @@
         <v>5</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="3">
         <v>42600</v>
@@ -1068,12 +1140,12 @@
         <v>5</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="3">
         <v>42600</v>
@@ -1086,12 +1158,12 @@
         <v>5</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="3">
         <v>42600</v>
@@ -1104,12 +1176,12 @@
         <v>5</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="3">
         <v>42600</v>
@@ -1122,12 +1194,12 @@
         <v>5</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="3">
         <v>42600</v>
@@ -1140,12 +1212,12 @@
         <v>5</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="3">
         <v>42604</v>
@@ -1158,15 +1230,15 @@
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="3">
         <v>42605</v>
@@ -1179,251 +1251,500 @@
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
+      </c>
+      <c r="C53" s="3">
+        <v>42581</v>
+      </c>
+      <c r="D53" s="3">
+        <v>42619</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>46</v>
+      <c r="A54" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="3">
+        <v>42581</v>
+      </c>
+      <c r="D54" s="3">
+        <v>42608</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>47</v>
+      <c r="A55" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="3">
+        <v>42581</v>
+      </c>
+      <c r="D55" s="3">
+        <v>42610</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>49</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="3">
+        <v>42590</v>
+      </c>
+      <c r="D56" s="3">
+        <v>42593</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="3">
+        <v>42604</v>
+      </c>
+      <c r="D57" s="3">
+        <v>42608</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="3">
+        <v>42603</v>
+      </c>
+      <c r="D58" s="3">
+        <v>42613</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="3">
+        <v>42603</v>
+      </c>
+      <c r="D59" s="3">
+        <v>42604</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="3">
+        <v>42604</v>
+      </c>
+      <c r="D60" s="3">
+        <v>42605</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" s="3">
+        <v>42605</v>
+      </c>
+      <c r="D61" s="3">
+        <v>42605</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="3">
+        <v>42606</v>
+      </c>
+      <c r="D62" s="3">
+        <v>42607</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" s="3">
+        <v>42612</v>
+      </c>
+      <c r="D63" s="3">
+        <v>42613</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" s="3">
+        <v>42604</v>
+      </c>
+      <c r="D64" s="3">
+        <v>42619</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="3">
+        <v>42604</v>
+      </c>
+      <c r="D65" s="3">
+        <v>42604</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" s="3">
+        <v>42608</v>
+      </c>
+      <c r="D66" s="3">
+        <v>42610</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="3">
+        <v>42610</v>
+      </c>
+      <c r="D67" s="3">
+        <v>42611</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="3">
+        <v>42611</v>
+      </c>
+      <c r="D68" s="3">
+        <v>42612</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C69" s="3">
+        <v>42612</v>
+      </c>
+      <c r="D69" s="3">
+        <v>42615</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" s="3">
+        <v>42615</v>
+      </c>
+      <c r="D70" s="3">
+        <v>42616</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" s="3">
+        <v>42617</v>
+      </c>
+      <c r="D71" s="3">
+        <v>42617</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="3">
+        <v>42618</v>
+      </c>
+      <c r="D72" s="3">
+        <v>42619</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assignments & timeline for SilverReminder.xlsx
+++ b/assignments & timeline for SilverReminder.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Enoch\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\下載\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6012"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment &amp; Timeline" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="88">
   <si>
     <t>Task Name</t>
   </si>
@@ -337,6 +337,10 @@
   </si>
   <si>
     <t>文菁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未執行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -720,23 +724,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.75" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="82.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="12" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -756,7 +759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>44</v>
       </c>
@@ -775,7 +778,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>45</v>
       </c>
@@ -794,7 +797,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>46</v>
       </c>
@@ -813,7 +816,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>47</v>
       </c>
@@ -832,7 +835,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>48</v>
       </c>
@@ -851,7 +854,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>49</v>
       </c>
@@ -870,7 +873,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>50</v>
       </c>
@@ -889,7 +892,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="6" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="6" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>63</v>
       </c>
@@ -910,7 +913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>54</v>
       </c>
@@ -929,7 +932,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>55</v>
       </c>
@@ -948,7 +951,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>56</v>
       </c>
@@ -967,7 +970,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>57</v>
       </c>
@@ -986,7 +989,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>59</v>
       </c>
@@ -1005,7 +1008,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>61</v>
       </c>
@@ -1024,7 +1027,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>19</v>
       </c>
@@ -1043,7 +1046,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>20</v>
       </c>
@@ -1062,7 +1065,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>21</v>
       </c>
@@ -1081,7 +1084,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -1099,7 +1102,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
@@ -1107,115 +1110,115 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C21" s="3">
-        <v>42600</v>
+        <v>42573</v>
       </c>
       <c r="D21" s="3">
-        <v>42604</v>
+        <v>42579</v>
       </c>
       <c r="E21" s="2">
         <f>(D21-C21)+1</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="3">
-        <v>42600</v>
+        <v>42595</v>
       </c>
       <c r="D22" s="3">
-        <v>42604</v>
+        <v>42596</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" ref="E22:E34" si="1">(D22-C22)+1</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="3">
+        <v>42597</v>
+      </c>
+      <c r="D23" s="3">
         <v>42600</v>
-      </c>
-      <c r="D23" s="3">
-        <v>42604</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="3">
-        <v>42600</v>
+        <v>42601</v>
       </c>
       <c r="D24" s="3">
-        <v>42604</v>
+        <v>42601</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="3">
-        <v>42600</v>
+        <v>42601</v>
       </c>
       <c r="D25" s="3">
-        <v>42604</v>
+        <v>42601</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C26" s="3">
-        <v>42600</v>
+        <v>42601</v>
       </c>
       <c r="D26" s="3">
-        <v>42604</v>
+        <v>42601</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -1233,7 +1236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
@@ -1241,10 +1244,10 @@
         <v>11</v>
       </c>
       <c r="C28" s="3">
-        <v>42605</v>
+        <v>42608</v>
       </c>
       <c r="D28" s="3">
-        <v>42605</v>
+        <v>42608</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="1"/>
@@ -1254,21 +1257,33 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C29" s="3">
+        <v>42609</v>
+      </c>
+      <c r="D29" s="3">
+        <v>42610</v>
+      </c>
       <c r="E29" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="C30" s="3">
+        <v>42603</v>
+      </c>
+      <c r="D30" s="3">
+        <v>42603</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="1"/>
@@ -1278,45 +1293,66 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C31" s="3">
+        <v>42573</v>
+      </c>
+      <c r="D31" s="3">
+        <v>42621</v>
+      </c>
       <c r="E31" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C32" s="3">
+        <v>42573</v>
+      </c>
+      <c r="D32" s="3">
+        <v>42621</v>
+      </c>
       <c r="E32" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C33" s="3">
+        <v>42573</v>
+      </c>
+      <c r="D33" s="3">
+        <v>42621</v>
+      </c>
       <c r="E33" s="2">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="1"/>
@@ -1326,7 +1362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
@@ -1334,7 +1370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>24</v>
       </c>
@@ -1342,7 +1378,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
@@ -1350,7 +1386,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,7 +1394,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>27</v>
       </c>
@@ -1366,7 +1402,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>28</v>
       </c>
@@ -1374,7 +1410,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>29</v>
       </c>
@@ -1382,7 +1418,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>30</v>
       </c>
@@ -1390,7 +1426,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
@@ -1398,7 +1434,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
@@ -1406,7 +1442,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>35</v>
       </c>
@@ -1414,7 +1450,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>36</v>
       </c>
@@ -1422,7 +1458,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>37</v>
       </c>
@@ -1430,7 +1466,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>38</v>
       </c>
@@ -1438,7 +1474,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>39</v>
       </c>
@@ -1446,7 +1482,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>41</v>
       </c>
@@ -1454,7 +1490,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>42</v>
       </c>
@@ -1462,7 +1498,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>64</v>
       </c>
@@ -1476,7 +1512,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>70</v>
       </c>
@@ -1490,7 +1526,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
         <v>67</v>
       </c>
@@ -1504,7 +1540,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
         <v>69</v>
       </c>
@@ -1518,7 +1554,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
         <v>68</v>
       </c>
@@ -1532,7 +1568,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>71</v>
       </c>
@@ -1546,7 +1582,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
         <v>79</v>
       </c>
@@ -1560,7 +1596,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
         <v>73</v>
       </c>
@@ -1574,7 +1610,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
         <v>74</v>
       </c>
@@ -1588,7 +1624,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
         <v>76</v>
       </c>
@@ -1602,7 +1638,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
         <v>75</v>
       </c>
@@ -1616,7 +1652,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>72</v>
       </c>
@@ -1630,7 +1666,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
         <v>83</v>
       </c>
@@ -1644,7 +1680,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
         <v>78</v>
       </c>
@@ -1658,7 +1694,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="13" t="s">
         <v>80</v>
       </c>
@@ -1672,7 +1708,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
         <v>81</v>
       </c>
@@ -1686,7 +1722,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="13" t="s">
         <v>82</v>
       </c>
@@ -1700,7 +1736,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
         <v>77</v>
       </c>
@@ -1714,7 +1750,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="13" t="s">
         <v>84</v>
       </c>
@@ -1728,7 +1764,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
         <v>85</v>
       </c>

--- a/assignments & timeline for SilverReminder.xlsx
+++ b/assignments & timeline for SilverReminder.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6012"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment &amp; Timeline" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="96">
   <si>
     <t>Task Name</t>
   </si>
@@ -52,12 +52,6 @@
   </si>
   <si>
     <t>修改儲物提醒 table schema(第二版)[為求命名統一 僅修改欄位名稱 架構不變]</t>
-  </si>
-  <si>
-    <t>修改用藥提醒 table schema(第二版)</t>
-  </si>
-  <si>
-    <t>程式碼產生程式開發(使用 Oracle CodeModel 函式庫)</t>
   </si>
   <si>
     <t>測試github多人協同開發</t>
@@ -341,6 +335,54 @@
   </si>
   <si>
     <t>未執行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChoiceHomeActivity
+ChoiceOutdoorAllOperationActivity
+ChoiceTaskListPeriodActivity
+CreateDingDongActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateSoundFileActivity
+ListSoundFileActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateOrEditTaskActivity
+CreateOrEditTaskDetailListItemActivity
+ListTaskActivity
+ListTaskItemActivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統測試與除錯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隨機測試(猴子測試 Monkey Test)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapOptimizePathActivity
+MapSosActivity(這裡可能不執行 看情況)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統整合與整體測試</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿鬼跟其他組員</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程式碼產生程式開發(使用 Oracle CodeModel 函式庫)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用藥提醒 table schema(第二版)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,11 +764,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -735,7 +777,7 @@
     <col min="2" max="2" width="36.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -744,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>1</v>
@@ -761,7 +803,7 @@
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="5">
@@ -775,12 +817,12 @@
         <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="5">
@@ -794,12 +836,12 @@
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="5">
@@ -813,12 +855,12 @@
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="5">
@@ -832,12 +874,12 @@
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="5">
@@ -851,12 +893,12 @@
         <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="5">
@@ -870,12 +912,12 @@
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="5">
@@ -889,15 +931,15 @@
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="6" customFormat="1" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="5">
         <v>42604</v>
@@ -910,12 +952,12 @@
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="5">
@@ -929,12 +971,12 @@
         <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="5">
@@ -948,12 +990,12 @@
         <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="5">
@@ -967,12 +1009,12 @@
         <v>5</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="5">
@@ -986,12 +1028,12 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="5">
@@ -1005,12 +1047,12 @@
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="5">
@@ -1024,12 +1066,12 @@
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="5">
@@ -1043,12 +1085,12 @@
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="5">
@@ -1062,12 +1104,12 @@
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="5">
@@ -1081,12 +1123,12 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="3">
         <v>42619</v>
@@ -1099,20 +1141,20 @@
         <v>3</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C21" s="3">
         <v>42573</v>
@@ -1125,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1139,11 +1181,11 @@
         <v>42596</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" ref="E22:E34" si="1">(D22-C22)+1</f>
+        <f t="shared" ref="E22:E40" si="1">(D22-C22)+1</f>
         <v>2</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1161,7 +1203,7 @@
         <v>4</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1179,7 +1221,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1197,12 +1239,12 @@
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="C26" s="3">
         <v>42601</v>
@@ -1215,12 +1257,12 @@
         <v>1</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>10</v>
+      <c r="A27" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="C27" s="3">
         <v>42604</v>
@@ -1233,15 +1275,15 @@
         <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>51</v>
+      <c r="A28" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C28" s="3">
         <v>42608</v>
@@ -1254,12 +1296,12 @@
         <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>12</v>
+      <c r="A29" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C29" s="3">
         <v>42609</v>
@@ -1272,12 +1314,12 @@
         <v>2</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>13</v>
+      <c r="A30" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C30" s="3">
         <v>42603</v>
@@ -1290,12 +1332,12 @@
         <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>14</v>
+      <c r="A31" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="C31" s="3">
         <v>42573</v>
@@ -1308,12 +1350,12 @@
         <v>49</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>15</v>
+      <c r="A32" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="C32" s="3">
         <v>42573</v>
@@ -1326,12 +1368,12 @@
         <v>49</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>16</v>
+      <c r="A33" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="C33" s="3">
         <v>42573</v>
@@ -1344,438 +1386,549 @@
         <v>49</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>17</v>
+      <c r="A34" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="3">
+        <v>42612</v>
+      </c>
+      <c r="D35" s="3">
+        <v>42612</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="3">
+        <v>42613</v>
+      </c>
+      <c r="D36" s="3">
+        <v>42613</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="3">
+        <v>42614</v>
+      </c>
+      <c r="D37" s="3">
+        <v>42614</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="3">
+        <v>42615</v>
+      </c>
+      <c r="D38" s="3">
+        <v>42615</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>27</v>
+      <c r="A39" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="3">
+        <v>42616</v>
+      </c>
+      <c r="D39" s="3">
+        <v>42617</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>28</v>
+      <c r="A40" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="3">
+        <v>42618</v>
+      </c>
+      <c r="D40" s="3">
+        <v>42620</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="3">
+        <v>35</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="3">
         <v>42581</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D59" s="3">
         <v>42619</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C54" s="3">
+      <c r="F59" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="3">
         <v>42581</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D60" s="3">
         <v>42608</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="3">
-        <v>42581</v>
-      </c>
-      <c r="D55" s="3">
-        <v>42610</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="3">
-        <v>42590</v>
-      </c>
-      <c r="D56" s="3">
-        <v>42593</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" s="3">
-        <v>42604</v>
-      </c>
-      <c r="D57" s="3">
-        <v>42608</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="3">
-        <v>42603</v>
-      </c>
-      <c r="D58" s="3">
-        <v>42613</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" s="3">
-        <v>42603</v>
-      </c>
-      <c r="D59" s="3">
-        <v>42604</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60" s="3">
-        <v>42604</v>
-      </c>
-      <c r="D60" s="3">
-        <v>42605</v>
-      </c>
       <c r="F60" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C61" s="3">
-        <v>42605</v>
+        <v>42581</v>
       </c>
       <c r="D61" s="3">
-        <v>42605</v>
+        <v>42610</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C62" s="3">
-        <v>42606</v>
+        <v>42590</v>
       </c>
       <c r="D62" s="3">
-        <v>42607</v>
+        <v>42593</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C63" s="3">
-        <v>42612</v>
+        <v>42604</v>
       </c>
       <c r="D63" s="3">
-        <v>42613</v>
+        <v>42608</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C64" s="3">
-        <v>42604</v>
+        <v>42603</v>
       </c>
       <c r="D64" s="3">
-        <v>42619</v>
+        <v>42613</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C65" s="3">
-        <v>42604</v>
+        <v>42603</v>
       </c>
       <c r="D65" s="3">
         <v>42604</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C66" s="3">
-        <v>42608</v>
+        <v>42604</v>
       </c>
       <c r="D66" s="3">
-        <v>42610</v>
+        <v>42605</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="13" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C67" s="3">
-        <v>42610</v>
+        <v>42605</v>
       </c>
       <c r="D67" s="3">
-        <v>42611</v>
+        <v>42605</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C68" s="3">
-        <v>42611</v>
+        <v>42606</v>
       </c>
       <c r="D68" s="3">
-        <v>42612</v>
+        <v>42607</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="13" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C69" s="3">
         <v>42612</v>
       </c>
       <c r="D69" s="3">
-        <v>42615</v>
+        <v>42613</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="13" t="s">
-        <v>77</v>
+      <c r="A70" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="C70" s="3">
-        <v>42615</v>
+        <v>42604</v>
       </c>
       <c r="D70" s="3">
-        <v>42616</v>
+        <v>42619</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" s="3">
+        <v>42604</v>
+      </c>
+      <c r="D71" s="3">
+        <v>42604</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C71" s="3">
-        <v>42617</v>
-      </c>
-      <c r="D71" s="3">
-        <v>42617</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C72" s="3">
+        <v>42608</v>
+      </c>
+      <c r="D72" s="3">
+        <v>42610</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="3">
+        <v>42610</v>
+      </c>
+      <c r="D73" s="3">
+        <v>42611</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="3">
+        <v>42611</v>
+      </c>
+      <c r="D74" s="3">
+        <v>42612</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="3">
+        <v>42612</v>
+      </c>
+      <c r="D75" s="3">
+        <v>42615</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C76" s="3">
+        <v>42615</v>
+      </c>
+      <c r="D76" s="3">
+        <v>42616</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="3">
+        <v>42617</v>
+      </c>
+      <c r="D77" s="3">
+        <v>42617</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" s="3">
         <v>42618</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D78" s="3">
         <v>42619</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>86</v>
+      <c r="F78" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
